--- a/data/Dataset Mentah TRO.xlsx
+++ b/data/Dataset Mentah TRO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\semester 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74195DAE-3E0E-459F-9E12-9B174AD8DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8A308A-170F-469F-B184-A5FC7C767501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB14938E-9935-4CC4-8E79-F795DB822D8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Produk</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Toast</t>
+  </si>
+  <si>
+    <t>Permintaan rata-rata per hari</t>
+  </si>
+  <si>
+    <t>Permintaan total per tahun (biasanya = d_per_hari × 365)</t>
+  </si>
+  <si>
+    <t>Biaya pemesanan setiap kali order (ordering cost per order)</t>
+  </si>
+  <si>
+    <t>Biaya penyimpanan per unit per tahun (holding cost per unit per year)</t>
+  </si>
+  <si>
+    <t>Waktu tunggu dari pemesanan hingga barang datang</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>D_per_hari</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -85,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,8 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1470A4-A859-4D34-A0D2-0E9D936FC7A7}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
     <col min="3" max="3" width="18.36328125" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
     <col min="5" max="5" width="23.54296875" customWidth="1"/>
@@ -437,22 +470,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -576,7 +609,69 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>